--- a/Class/JSClass/DOM.xlsx
+++ b/Class/JSClass/DOM.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$53</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>document.anchors</t>
   </si>
@@ -433,13 +436,16 @@
   </si>
   <si>
     <t>Finding HTML Objects</t>
+  </si>
+  <si>
+    <t>The JavaScript DOM (Document Object Model)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +488,22 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -509,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -541,12 +563,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -566,15 +598,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -854,484 +890,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="C45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="C51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C53" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A14:B14"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="64" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>